--- a/company_translation.xlsx
+++ b/company_translation.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
   <si>
     <t>RAP - Translation ID</t>
   </si>
@@ -74,9 +74,6 @@
     <t>ANYANG BRANCH, BANK OF CHINA LIMITED</t>
   </si>
   <si>
-    <t>BEIJING SINODATA TECHNOLOGY CO., LTD.</t>
-  </si>
-  <si>
     <t>BANK OF CHINA TIANJIN BRANCH</t>
   </si>
   <si>
@@ -86,10 +83,10 @@
     <t>BANK OF CHINA LIMITED HEBEI BRANCH</t>
   </si>
   <si>
-    <t>CHINA BANK CO., LTD.</t>
-  </si>
-  <si>
-    <t>HUIZHOU BRANCH OF CHINA BANK</t>
+    <t>THE BASSICK MANUFACTURING COMPANY</t>
+  </si>
+  <si>
+    <t>BANK OF CHINA LTD.</t>
   </si>
 </sst>
 </file>
@@ -356,16 +353,16 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C13" t="n">
-        <v>4.4026432E7</v>
+        <v>4.0503261E7</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
@@ -376,13 +373,13 @@
         <v>2.0</v>
       </c>
       <c r="C14" t="n">
-        <v>5.0420031E7</v>
+        <v>4.4026432E7</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -393,13 +390,13 @@
         <v>2.0</v>
       </c>
       <c r="C15" t="n">
-        <v>4.1370098E7</v>
+        <v>5.0420031E7</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
@@ -416,7 +413,7 @@
         <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
@@ -433,7 +430,7 @@
         <v>17</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18">
@@ -450,7 +447,7 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
@@ -461,13 +458,13 @@
         <v>2.0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.9599079E7</v>
+        <v>1.2904974E7</v>
       </c>
       <c r="D19" t="s">
         <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20">
@@ -478,13 +475,30 @@
         <v>2.0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.9318617E7</v>
+        <v>1.9583898E7</v>
       </c>
       <c r="D20" t="s">
         <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>25</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.9599018E7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/company_translation.xlsx
+++ b/company_translation.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
   <si>
     <t>RAP - Translation ID</t>
   </si>
@@ -74,9 +74,6 @@
     <t>ANYANG BRANCH, BANK OF CHINA LIMITED</t>
   </si>
   <si>
-    <t>BEIJING SINODATA TECHNOLOGY CO., LTD.</t>
-  </si>
-  <si>
     <t>BANK OF CHINA TIANJIN BRANCH</t>
   </si>
   <si>
@@ -86,10 +83,19 @@
     <t>BANK OF CHINA LIMITED HEBEI BRANCH</t>
   </si>
   <si>
+    <t>CHINA BANKING CO., LTD.</t>
+  </si>
+  <si>
     <t>CHINA BANK CO., LTD.</t>
   </si>
   <si>
-    <t>Honda Giken Kogyo Kabushiki Kaisha</t>
+    <t>BANK OF CHINA LTD.</t>
+  </si>
+  <si>
+    <t>HUIZHOU BRANCH OF CHINA BANK</t>
+  </si>
+  <si>
+    <t>INFORMATION SCIENCE AND TECHNOLOGY DEPT., BANK OF CHINA</t>
   </si>
 </sst>
 </file>
@@ -356,16 +362,16 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C13" t="n">
-        <v>4.4026432E7</v>
+        <v>4.0503261E7</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
@@ -376,13 +382,13 @@
         <v>2.0</v>
       </c>
       <c r="C14" t="n">
-        <v>5.0420031E7</v>
+        <v>4.4026432E7</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -393,13 +399,13 @@
         <v>2.0</v>
       </c>
       <c r="C15" t="n">
-        <v>4.1370098E7</v>
+        <v>5.0420031E7</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
@@ -416,7 +422,7 @@
         <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
@@ -433,7 +439,7 @@
         <v>17</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18">
@@ -450,7 +456,7 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
@@ -478,13 +484,13 @@
         <v>2.0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.9599079E7</v>
+        <v>1.9583899E7</v>
       </c>
       <c r="D20" t="s">
         <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
@@ -495,13 +501,64 @@
         <v>2.0</v>
       </c>
       <c r="C21" t="n">
-        <v>5956398.0</v>
+        <v>1.9599079E7</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
       </c>
       <c r="E21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.9599018E7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.9318617E7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.9244377E7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/company_translation.xlsx
+++ b/company_translation.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
   <si>
     <t>RAP - Translation ID</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>IAT (CHINA) AUTO TECHNOLOGY CO., LTD.</t>
+  </si>
+  <si>
+    <t>IAT (CHENGDU)AUTOMOBILE DESIGN CO., LTD.</t>
   </si>
   <si>
     <t>中国银行股份有限公司</t>
@@ -376,33 +379,33 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>13.0</v>
+        <v>24.0</v>
       </c>
       <c r="B14" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C14" t="n">
-        <v>4.4026432E7</v>
+        <v>5.2019065E7</v>
       </c>
       <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
         <v>17</v>
-      </c>
-      <c r="E14" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="B15" t="n">
         <v>2.0</v>
       </c>
       <c r="C15" t="n">
-        <v>5.0420031E7</v>
+        <v>4.4026432E7</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E15" t="s">
         <v>19</v>
@@ -410,16 +413,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="B16" t="n">
         <v>2.0</v>
       </c>
       <c r="C16" t="n">
-        <v>4.885684E7</v>
+        <v>5.0420031E7</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E16" t="s">
         <v>20</v>
@@ -427,16 +430,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="B17" t="n">
         <v>2.0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.6630885E7</v>
+        <v>4.885684E7</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E17" t="s">
         <v>21</v>
@@ -444,16 +447,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="B18" t="n">
         <v>2.0</v>
       </c>
       <c r="C18" t="n">
-        <v>4.3921722E7</v>
+        <v>4.6630885E7</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E18" t="s">
         <v>22</v>
@@ -461,50 +464,50 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="B19" t="n">
         <v>2.0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.9583898E7</v>
+        <v>4.3921722E7</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="B20" t="n">
         <v>2.0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.9583899E7</v>
+        <v>1.9583898E7</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="B21" t="n">
         <v>2.0</v>
       </c>
       <c r="C21" t="n">
-        <v>1.9599079E7</v>
+        <v>1.9583899E7</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E21" t="s">
         <v>24</v>
@@ -512,16 +515,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="B22" t="n">
         <v>2.0</v>
       </c>
       <c r="C22" t="n">
-        <v>1.9599018E7</v>
+        <v>1.9599079E7</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E22" t="s">
         <v>25</v>
@@ -529,16 +532,16 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="B23" t="n">
         <v>2.0</v>
       </c>
       <c r="C23" t="n">
-        <v>1.9318617E7</v>
+        <v>1.9599018E7</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E23" t="s">
         <v>26</v>
@@ -546,19 +549,36 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="B24" t="n">
         <v>2.0</v>
       </c>
       <c r="C24" t="n">
-        <v>1.9244377E7</v>
+        <v>1.9318617E7</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E24" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.9244377E7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/company_translation.xlsx
+++ b/company_translation.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
   <si>
     <t>RAP - Translation ID</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>IAT (CHINA) AUTO TECHNOLOGY CO., LTD.</t>
-  </si>
-  <si>
-    <t>IAT (CHENGDU)AUTOMOBILE DESIGN CO., LTD.</t>
   </si>
   <si>
     <t>中国银行股份有限公司</t>
@@ -379,33 +376,33 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>24.0</v>
+        <v>13.0</v>
       </c>
       <c r="B14" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C14" t="n">
-        <v>5.2019065E7</v>
+        <v>4.4026432E7</v>
       </c>
       <c r="D14" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="B15" t="n">
         <v>2.0</v>
       </c>
       <c r="C15" t="n">
-        <v>4.4026432E7</v>
+        <v>5.0420031E7</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15" t="s">
         <v>19</v>
@@ -413,16 +410,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="B16" t="n">
         <v>2.0</v>
       </c>
       <c r="C16" t="n">
-        <v>5.0420031E7</v>
+        <v>4.885684E7</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16" t="s">
         <v>20</v>
@@ -430,16 +427,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="B17" t="n">
         <v>2.0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.885684E7</v>
+        <v>4.6630885E7</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E17" t="s">
         <v>21</v>
@@ -447,16 +444,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="B18" t="n">
         <v>2.0</v>
       </c>
       <c r="C18" t="n">
-        <v>4.6630885E7</v>
+        <v>4.3921722E7</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E18" t="s">
         <v>22</v>
@@ -464,50 +461,50 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="B19" t="n">
         <v>2.0</v>
       </c>
       <c r="C19" t="n">
-        <v>4.3921722E7</v>
+        <v>1.9583898E7</v>
       </c>
       <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" t="s">
         <v>18</v>
-      </c>
-      <c r="E19" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="B20" t="n">
         <v>2.0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.9583898E7</v>
+        <v>1.9583899E7</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="B21" t="n">
         <v>2.0</v>
       </c>
       <c r="C21" t="n">
-        <v>1.9583899E7</v>
+        <v>1.9599079E7</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E21" t="s">
         <v>24</v>
@@ -515,16 +512,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="B22" t="n">
         <v>2.0</v>
       </c>
       <c r="C22" t="n">
-        <v>1.9599079E7</v>
+        <v>1.9599018E7</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E22" t="s">
         <v>25</v>
@@ -532,16 +529,16 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="B23" t="n">
         <v>2.0</v>
       </c>
       <c r="C23" t="n">
-        <v>1.9599018E7</v>
+        <v>1.9318617E7</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E23" t="s">
         <v>26</v>
@@ -549,36 +546,19 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="B24" t="n">
         <v>2.0</v>
       </c>
       <c r="C24" t="n">
-        <v>1.9318617E7</v>
+        <v>1.9244377E7</v>
       </c>
       <c r="D24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E24" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="B25" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1.9244377E7</v>
-      </c>
-      <c r="D25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/company_translation.xlsx
+++ b/company_translation.xlsx
@@ -26,7 +26,7 @@
     <t>Source - Company Name in Chinese</t>
   </si>
   <si>
-    <t>Source - Company Name in English</t>
+    <t>RAP - Company Name in English</t>
   </si>
   <si>
     <t>阿尔特汽车技术股份有限公司；阿尔特(中国)汽车技术有限公司</t>
@@ -399,13 +399,13 @@
         <v>2.0</v>
       </c>
       <c r="C15" t="n">
-        <v>5.0420031E7</v>
+        <v>1.9583898E7</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -416,13 +416,13 @@
         <v>2.0</v>
       </c>
       <c r="C16" t="n">
-        <v>4.885684E7</v>
+        <v>5.0420031E7</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
@@ -433,13 +433,13 @@
         <v>2.0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.6630885E7</v>
+        <v>4.885684E7</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
@@ -450,13 +450,13 @@
         <v>2.0</v>
       </c>
       <c r="C18" t="n">
-        <v>4.3921722E7</v>
+        <v>4.6630885E7</v>
       </c>
       <c r="D18" t="s">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19">
@@ -467,13 +467,13 @@
         <v>2.0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.9583898E7</v>
+        <v>4.3921722E7</v>
       </c>
       <c r="D19" t="s">
         <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20">

--- a/company_translation.xlsx
+++ b/company_translation.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="51">
   <si>
     <t>RAP - Translation ID</t>
   </si>
@@ -65,37 +65,106 @@
     <t>IAT (CHINA) AUTO TECHNOLOGY CO., LTD.</t>
   </si>
   <si>
-    <t>中国银行股份有限公司</t>
-  </si>
-  <si>
-    <t>BANK OF CHINA CO., LTD.</t>
-  </si>
-  <si>
-    <t>ANYANG BRANCH, BANK OF CHINA LIMITED</t>
-  </si>
-  <si>
-    <t>BANK OF CHINA TIANJIN BRANCH</t>
-  </si>
-  <si>
-    <t>BANK OF CHINA ZHEJIANG BRANCH</t>
-  </si>
-  <si>
-    <t>BANK OF CHINA LIMITED HEBEI BRANCH</t>
-  </si>
-  <si>
-    <t>CHINA BANKING CO., LTD.</t>
-  </si>
-  <si>
-    <t>CHINA BANK CO., LTD.</t>
-  </si>
-  <si>
-    <t>BANK OF CHINA LTD.</t>
-  </si>
-  <si>
-    <t>HUIZHOU BRANCH OF CHINA BANK</t>
-  </si>
-  <si>
-    <t>INFORMATION SCIENCE AND TECHNOLOGY DEPT., BANK OF CHINA</t>
+    <t>北京世纪互联宽带数据中心；北京世纪互联工程技术服务有限公司</t>
+  </si>
+  <si>
+    <t>BEIJING SHIJIHULIAN ENGINEERING TECHNOLOGY SERVICE CO., LTD.</t>
+  </si>
+  <si>
+    <t>21VIANET GROUP INC.</t>
+  </si>
+  <si>
+    <t>BEIJING SHIJI HULIAN ENGINEERING SERVICES CO., LTD.</t>
+  </si>
+  <si>
+    <t>BEIJING CENTURY HULIAN ENGINEERING TECHNOLOGY SERVICE CO., LTD.</t>
+  </si>
+  <si>
+    <t>21VIANET CO., LTD.</t>
+  </si>
+  <si>
+    <t>BEIJING CENTURY INTERNET ENGINEERING TECHNOLOGY SERVICE CO., LTD.</t>
+  </si>
+  <si>
+    <t>BEIJING SHIJI HULIAN ENGINEERING TECHNOLOGY SERVICE CO., LTD.</t>
+  </si>
+  <si>
+    <t>CLOUDEX INC.</t>
+  </si>
+  <si>
+    <t>BEIJING CENTURY INTERNET BROADBAND DATA CENTER CO., LTD.</t>
+  </si>
+  <si>
+    <t>BANYANO CENTURY INTERCONNECTION ENGINEERING TECHNOLOGY SERVICE CO., LTD.</t>
+  </si>
+  <si>
+    <t>BEIJING SHIJI INTERCONNECTION BROADBAND DATA CENTER CO., LTD.</t>
+  </si>
+  <si>
+    <t>21VIANET GROUP, INC.</t>
+  </si>
+  <si>
+    <t>BEIJING CLOUDEX SOFTWARE TECHNOLOGY CO., LTD.</t>
+  </si>
+  <si>
+    <t>21ViaNet Group, Inc.</t>
+  </si>
+  <si>
+    <t>CLOUDEX. INC.</t>
+  </si>
+  <si>
+    <t>BEIJING 21VIANET BROADBAND DATA CENTER CO., LTD.</t>
+  </si>
+  <si>
+    <t>BEIJING BANYANO CO., LTD.</t>
+  </si>
+  <si>
+    <t>BEIJING CENTURY INTERNET ENGINEERING TECHNOLOGY SERVICES CO., LTD.</t>
+  </si>
+  <si>
+    <t>21VIANET (CHINA), INC.</t>
+  </si>
+  <si>
+    <t>21VIANET (CHINA) INC.</t>
+  </si>
+  <si>
+    <t>BEIJING 21VIANET INC.</t>
+  </si>
+  <si>
+    <t>BEIJING 21VIANET DATA CENTER CO., LTD.</t>
+  </si>
+  <si>
+    <t>BEIJING BANYANO DATA CENTER SOLUTIONS LTD.</t>
+  </si>
+  <si>
+    <t>BEIJING CENTURY BROADBAND INTERNET DATA CENTER CO., LTD.</t>
+  </si>
+  <si>
+    <t>商埃曲网络软件(上海)有限公司</t>
+  </si>
+  <si>
+    <t>NINGBO 3H INFORMATION TECHNOLOGY CO., LTD.</t>
+  </si>
+  <si>
+    <t>3H INTERNATIONAL TECHNOLOGY PTE LTD.</t>
+  </si>
+  <si>
+    <t>3H INTERNATIONAL TECHNOLOGY (SHANGHAI) LTD.</t>
+  </si>
+  <si>
+    <t>广州市千钧网络科技有限公司</t>
+  </si>
+  <si>
+    <t>GUANGZHOU QIANJUN NETWORK TECHNOLOGY DEVELOPMENT CO., LTD.</t>
+  </si>
+  <si>
+    <t>7天连锁酒店集团；七天酒店（深圳）有限公司 </t>
+  </si>
+  <si>
+    <t>7 DAYS GROUP (SHENZHEN) CO., LTD.</t>
+  </si>
+  <si>
+    <t>SEVEN DAYS HOTEL(SHENZHEN) CO., LTD.</t>
   </si>
 </sst>
 </file>
@@ -149,8 +218,8 @@
     <col min="1" max="1" width="18.73828125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="15.99609375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="16.05859375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="61.76953125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="73.9453125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="64.8359375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="79.5234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -379,10 +448,10 @@
         <v>13.0</v>
       </c>
       <c r="B14" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="C14" t="n">
-        <v>4.4026432E7</v>
+        <v>4.2182538E7</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -396,16 +465,16 @@
         <v>14.0</v>
       </c>
       <c r="B15" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="C15" t="n">
-        <v>1.9583898E7</v>
+        <v>4.1932154E7</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
@@ -413,16 +482,16 @@
         <v>15.0</v>
       </c>
       <c r="B16" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="C16" t="n">
-        <v>5.0420031E7</v>
+        <v>4.2604747E7</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
@@ -430,16 +499,16 @@
         <v>16.0</v>
       </c>
       <c r="B17" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.885684E7</v>
+        <v>4.2307245E7</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
       </c>
       <c r="E17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18">
@@ -447,16 +516,16 @@
         <v>17.0</v>
       </c>
       <c r="B18" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="C18" t="n">
-        <v>4.6630885E7</v>
+        <v>4.2083427E7</v>
       </c>
       <c r="D18" t="s">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
@@ -464,16 +533,16 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="C19" t="n">
-        <v>4.3921722E7</v>
+        <v>4.2525704E7</v>
       </c>
       <c r="D19" t="s">
         <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20">
@@ -481,16 +550,16 @@
         <v>19.0</v>
       </c>
       <c r="B20" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.9583899E7</v>
+        <v>4.2293731E7</v>
       </c>
       <c r="D20" t="s">
         <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21">
@@ -498,16 +567,16 @@
         <v>20.0</v>
       </c>
       <c r="B21" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="C21" t="n">
-        <v>1.9599079E7</v>
+        <v>4.1778591E7</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22">
@@ -515,16 +584,16 @@
         <v>21.0</v>
       </c>
       <c r="B22" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="C22" t="n">
-        <v>1.9599018E7</v>
+        <v>4.1918311E7</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
       </c>
       <c r="E22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23">
@@ -532,16 +601,16 @@
         <v>22.0</v>
       </c>
       <c r="B23" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="C23" t="n">
-        <v>1.9318617E7</v>
+        <v>4.2449652E7</v>
       </c>
       <c r="D23" t="s">
         <v>17</v>
       </c>
       <c r="E23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24">
@@ -549,16 +618,373 @@
         <v>23.0</v>
       </c>
       <c r="B24" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="C24" t="n">
-        <v>1.9244377E7</v>
+        <v>4.211985E7</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
       </c>
       <c r="E24" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B25" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>5.1574851E7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="B26" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>4.2294151E7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B27" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>5.296265E7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B28" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>4.8274662E7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="B29" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>4.2151504E7</v>
+      </c>
+      <c r="D29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="B30" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>4.2082885E7</v>
+      </c>
+      <c r="D30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="B31" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>4.2260612E7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="B32" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>4.2239198E7</v>
+      </c>
+      <c r="D32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="B33" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>4.1790149E7</v>
+      </c>
+      <c r="D33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="B34" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>4.2035518E7</v>
+      </c>
+      <c r="D34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="B35" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>4.1758458E7</v>
+      </c>
+      <c r="D35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="B36" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>4.1469107E7</v>
+      </c>
+      <c r="D36" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B37" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>4.1125247E7</v>
+      </c>
+      <c r="D37" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="B38" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>4.084957E7</v>
+      </c>
+      <c r="D38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="B39" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>4.0849572E7</v>
+      </c>
+      <c r="D39" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="B40" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>4.6755004E7</v>
+      </c>
+      <c r="D40" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="B41" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>4.0256831E7</v>
+      </c>
+      <c r="D41" t="s">
+        <v>42</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="B42" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>4.0256832E7</v>
+      </c>
+      <c r="D42" t="s">
+        <v>42</v>
+      </c>
+      <c r="E42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="B43" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>4.2238703E7</v>
+      </c>
+      <c r="D43" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="B44" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>4.1138523E7</v>
+      </c>
+      <c r="D44" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="B45" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2.0406315E7</v>
+      </c>
+      <c r="D45" t="s">
+        <v>48</v>
+      </c>
+      <c r="E45" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/company_translation.xlsx
+++ b/company_translation.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="110">
   <si>
     <t>RAP - Translation ID</t>
   </si>
@@ -65,6 +65,9 @@
     <t>IAT (CHINA) AUTO TECHNOLOGY CO., LTD.</t>
   </si>
   <si>
+    <t>IAT (CHENGDU)AUTOMOBILE DESIGN CO., LTD.</t>
+  </si>
+  <si>
     <t>北京世纪互联宽带数据中心；北京世纪互联工程技术服务有限公司</t>
   </si>
   <si>
@@ -140,6 +143,9 @@
     <t>BEIJING CENTURY BROADBAND INTERNET DATA CENTER CO., LTD.</t>
   </si>
   <si>
+    <t>BEIJING YUNKUAIXIAN SOFTWARE SERVICE CO., LTD.</t>
+  </si>
+  <si>
     <t>商埃曲网络软件(上海)有限公司</t>
   </si>
   <si>
@@ -165,6 +171,177 @@
   </si>
   <si>
     <t>SEVEN DAYS HOTEL(SHENZHEN) CO., LTD.</t>
+  </si>
+  <si>
+    <t>安徽华菱汽车有限公司  </t>
+  </si>
+  <si>
+    <t>ANHUI HUALING AUTOMOBILE CO., LTD.</t>
+  </si>
+  <si>
+    <t>ANHUI CAMC AUTOMOBILE CO., LTD.</t>
+  </si>
+  <si>
+    <t>安徽华信国际控股股份有限公司；安徽华星化工股份有限公司</t>
+  </si>
+  <si>
+    <t>ANHUI HUAXING CHEMICAL INDUSTRY CO., LTD.</t>
+  </si>
+  <si>
+    <t>HUAXING CHEMICAL CO., LTD., ANHUI</t>
+  </si>
+  <si>
+    <t>ANHUI HUAXING CHEMICAL CO., LTD.</t>
+  </si>
+  <si>
+    <t>安徽佳先功能助剂股份有限公司</t>
+  </si>
+  <si>
+    <t>ANHUI JIAXIAN FUNCTIONAL AUXILIARY CO., LTD.</t>
+  </si>
+  <si>
+    <t>ANHUI JIAXIAN FUNCTIONAL AUXILIARY CO.,LTD.</t>
+  </si>
+  <si>
+    <t>安徽金禾实业股份有限公司</t>
+  </si>
+  <si>
+    <t>ANHUI JINGHE INDUSTRIAL CO., LTD.</t>
+  </si>
+  <si>
+    <t>ANHUI JINGHE INDUSTRY CO.,LTD.</t>
+  </si>
+  <si>
+    <t>ANHUI JINGHE INDUSTRY CO., LTD.</t>
+  </si>
+  <si>
+    <t>ANHUI JINHE STOCK CO., LTD.</t>
+  </si>
+  <si>
+    <t>ANHUI JINHE INDUSTY CO., LTD.</t>
+  </si>
+  <si>
+    <t>ANHUI JINHE INDUSTRY CO., LTD.</t>
+  </si>
+  <si>
+    <t>ANHUI JINHE INDUSTRY HOLDING CO., LTD.</t>
+  </si>
+  <si>
+    <t>安徽口子酒业股份有限公司</t>
+  </si>
+  <si>
+    <t>ANHUI KOUZI WINE INDUSTRY CO., LTD.</t>
+  </si>
+  <si>
+    <t>ANHUI KOUZI WINE CO., LTD.</t>
+  </si>
+  <si>
+    <t>ANHUI KOUZI LIQUOR INDUSTRY CO., LTD.</t>
+  </si>
+  <si>
+    <t>KOUZI WINE INDUSTRY CO., LTD., ANHUI</t>
+  </si>
+  <si>
+    <t>安徽六国化工股份有限公司</t>
+  </si>
+  <si>
+    <t>ANHUI LIUGUO CHEMICAL INDUSTRY CO., LTD.</t>
+  </si>
+  <si>
+    <t>ANHUI LIUGUO CHEMICAL CO., LTD.</t>
+  </si>
+  <si>
+    <t>ANHUI LIUGUO CHEMICAL INDUSTRY STOCK CO., LTD.</t>
+  </si>
+  <si>
+    <t>LIUGUO CHEMICAL CO., LTD., ANHUI PROV.</t>
+  </si>
+  <si>
+    <t>AMMONIUM PHOSPHATES PLANT, TONGLING CHEMICAL INDUSTRY GROUP CO.</t>
+  </si>
+  <si>
+    <t>安徽乐金健康科技股份有限公司；安徽桑乐金股份有限公司</t>
+  </si>
+  <si>
+    <t>ANHUI SAUNAKING CO., LTD.</t>
+  </si>
+  <si>
+    <t>HEFEI SOUTHASIA SAUNA APPARATUS STOCK CO., LTD.</t>
+  </si>
+  <si>
+    <t>亚新科南岳(衡阳)铝铸件有限公司； 南岳电控(衡阳)工业技术有限公司</t>
+  </si>
+  <si>
+    <t>NANYUE ELECTRIC CONTROL (HENGYANG) INDUSTRY TECHNOLOGY CO., LTD.</t>
+  </si>
+  <si>
+    <t>NANYUE FUEL INJECTION SYSTEMS CO., LTD.</t>
+  </si>
+  <si>
+    <t>NANYUE POWER CONTROL (HENGYANG) INDUSTRIAL TECHNOLOGY CO., LTD.</t>
+  </si>
+  <si>
+    <t>NANYUE ELECTRIC CONTROL (HENGYANG) INDUSTRY TECHNOLOGY CO.,LTD.</t>
+  </si>
+  <si>
+    <t>NANYUE FUEL INJECTION SYSTEM CO., LTD.</t>
+  </si>
+  <si>
+    <t>ASIMCO NANYUE (HENGYANG) CO., LTD.</t>
+  </si>
+  <si>
+    <t>中国银行股份有限公司</t>
+  </si>
+  <si>
+    <t>BANK OF CHINA CO., LTD.</t>
+  </si>
+  <si>
+    <t>ANYANG BRANCH, BANK OF CHINA LIMITED</t>
+  </si>
+  <si>
+    <t>BANK OF CHINA TIANJIN BRANCH</t>
+  </si>
+  <si>
+    <t>BANK OF CHINA ZHEJIANG BRANCH</t>
+  </si>
+  <si>
+    <t>BANK OF CHINA LIMITED HEBEI BRANCH</t>
+  </si>
+  <si>
+    <t>CHINA BANKING CO., LTD.</t>
+  </si>
+  <si>
+    <t>CHINA BANK CO., LTD.</t>
+  </si>
+  <si>
+    <t>BANK OF CHINA LTD.</t>
+  </si>
+  <si>
+    <t>HUIZHOU BRANCH OF CHINA BANK</t>
+  </si>
+  <si>
+    <t>INFORMATION SCIENCE AND TECHNOLOGY DEPT., BANK OF CHINA</t>
+  </si>
+  <si>
+    <t>北京谊安医疗系统</t>
+  </si>
+  <si>
+    <t>BEIJING AEONMED CO., LTD.</t>
+  </si>
+  <si>
+    <t>Beijing Aeonmed Co., Ltd.</t>
+  </si>
+  <si>
+    <t>BEIJING AEONMED MEDICAL SYSTEM CO., LTD.</t>
+  </si>
+  <si>
+    <t>深圳市奇迹通讯有限公司</t>
+  </si>
+  <si>
+    <t>SHENZHEN MIRACLE COMMUNICATION CO., LTD.</t>
+  </si>
+  <si>
+    <t>MIRACLE COMMUNICATION CO., LTD.</t>
   </si>
 </sst>
 </file>
@@ -218,7 +395,7 @@
     <col min="1" max="1" width="18.73828125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="15.99609375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="16.05859375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="64.8359375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="68.00390625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="79.5234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -445,33 +622,33 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>13.0</v>
+        <v>45.0</v>
       </c>
       <c r="B14" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="C14" t="n">
-        <v>4.2182538E7</v>
+        <v>5.2019065E7</v>
       </c>
       <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
         <v>17</v>
-      </c>
-      <c r="E14" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="B15" t="n">
         <v>5.0</v>
       </c>
       <c r="C15" t="n">
-        <v>4.1932154E7</v>
+        <v>4.2182538E7</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E15" t="s">
         <v>19</v>
@@ -479,16 +656,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="B16" t="n">
         <v>5.0</v>
       </c>
       <c r="C16" t="n">
-        <v>4.2604747E7</v>
+        <v>4.1932154E7</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E16" t="s">
         <v>20</v>
@@ -496,16 +673,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="B17" t="n">
         <v>5.0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.2307245E7</v>
+        <v>4.2604747E7</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E17" t="s">
         <v>21</v>
@@ -513,16 +690,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="B18" t="n">
         <v>5.0</v>
       </c>
       <c r="C18" t="n">
-        <v>4.2083427E7</v>
+        <v>4.2307245E7</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E18" t="s">
         <v>22</v>
@@ -530,16 +707,16 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="B19" t="n">
         <v>5.0</v>
       </c>
       <c r="C19" t="n">
-        <v>4.2525704E7</v>
+        <v>4.2083427E7</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E19" t="s">
         <v>23</v>
@@ -547,16 +724,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="B20" t="n">
         <v>5.0</v>
       </c>
       <c r="C20" t="n">
-        <v>4.2293731E7</v>
+        <v>4.2525704E7</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E20" t="s">
         <v>24</v>
@@ -564,16 +741,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="B21" t="n">
         <v>5.0</v>
       </c>
       <c r="C21" t="n">
-        <v>4.1778591E7</v>
+        <v>4.2293731E7</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E21" t="s">
         <v>25</v>
@@ -581,16 +758,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="B22" t="n">
         <v>5.0</v>
       </c>
       <c r="C22" t="n">
-        <v>4.1918311E7</v>
+        <v>4.1778591E7</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E22" t="s">
         <v>26</v>
@@ -598,16 +775,16 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="B23" t="n">
         <v>5.0</v>
       </c>
       <c r="C23" t="n">
-        <v>4.2449652E7</v>
+        <v>4.1918311E7</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E23" t="s">
         <v>27</v>
@@ -615,16 +792,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="B24" t="n">
         <v>5.0</v>
       </c>
       <c r="C24" t="n">
-        <v>4.211985E7</v>
+        <v>4.2449652E7</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E24" t="s">
         <v>28</v>
@@ -632,16 +809,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="B25" t="n">
         <v>5.0</v>
       </c>
       <c r="C25" t="n">
-        <v>5.1574851E7</v>
+        <v>4.211985E7</v>
       </c>
       <c r="D25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E25" t="s">
         <v>29</v>
@@ -649,16 +826,16 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
       <c r="B26" t="n">
         <v>5.0</v>
       </c>
       <c r="C26" t="n">
-        <v>4.2294151E7</v>
+        <v>5.1574851E7</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E26" t="s">
         <v>30</v>
@@ -666,50 +843,50 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
       <c r="B27" t="n">
         <v>5.0</v>
       </c>
       <c r="C27" t="n">
-        <v>5.296265E7</v>
+        <v>4.2294151E7</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E27" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
       <c r="B28" t="n">
         <v>5.0</v>
       </c>
       <c r="C28" t="n">
-        <v>4.8274662E7</v>
+        <v>5.296265E7</v>
       </c>
       <c r="D28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
       <c r="B29" t="n">
         <v>5.0</v>
       </c>
       <c r="C29" t="n">
-        <v>4.2151504E7</v>
+        <v>4.8274662E7</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E29" t="s">
         <v>32</v>
@@ -717,16 +894,16 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
       <c r="B30" t="n">
         <v>5.0</v>
       </c>
       <c r="C30" t="n">
-        <v>4.2082885E7</v>
+        <v>4.2151504E7</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E30" t="s">
         <v>33</v>
@@ -734,16 +911,16 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
       <c r="B31" t="n">
         <v>5.0</v>
       </c>
       <c r="C31" t="n">
-        <v>4.2260612E7</v>
+        <v>4.2082885E7</v>
       </c>
       <c r="D31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E31" t="s">
         <v>34</v>
@@ -751,16 +928,16 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>31.0</v>
+        <v>30.0</v>
       </c>
       <c r="B32" t="n">
         <v>5.0</v>
       </c>
       <c r="C32" t="n">
-        <v>4.2239198E7</v>
+        <v>4.2260612E7</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E32" t="s">
         <v>35</v>
@@ -768,16 +945,16 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
       <c r="B33" t="n">
         <v>5.0</v>
       </c>
       <c r="C33" t="n">
-        <v>4.1790149E7</v>
+        <v>4.2239198E7</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E33" t="s">
         <v>36</v>
@@ -785,16 +962,16 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>33.0</v>
+        <v>32.0</v>
       </c>
       <c r="B34" t="n">
         <v>5.0</v>
       </c>
       <c r="C34" t="n">
-        <v>4.2035518E7</v>
+        <v>4.1790149E7</v>
       </c>
       <c r="D34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E34" t="s">
         <v>37</v>
@@ -802,16 +979,16 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>34.0</v>
+        <v>33.0</v>
       </c>
       <c r="B35" t="n">
         <v>5.0</v>
       </c>
       <c r="C35" t="n">
-        <v>4.1758458E7</v>
+        <v>4.2035518E7</v>
       </c>
       <c r="D35" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E35" t="s">
         <v>38</v>
@@ -819,16 +996,16 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
       <c r="B36" t="n">
         <v>5.0</v>
       </c>
       <c r="C36" t="n">
-        <v>4.1469107E7</v>
+        <v>4.1758458E7</v>
       </c>
       <c r="D36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E36" t="s">
         <v>39</v>
@@ -836,16 +1013,16 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>36.0</v>
+        <v>35.0</v>
       </c>
       <c r="B37" t="n">
         <v>5.0</v>
       </c>
       <c r="C37" t="n">
-        <v>4.1125247E7</v>
+        <v>4.1469107E7</v>
       </c>
       <c r="D37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E37" t="s">
         <v>40</v>
@@ -853,16 +1030,16 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>37.0</v>
+        <v>36.0</v>
       </c>
       <c r="B38" t="n">
         <v>5.0</v>
       </c>
       <c r="C38" t="n">
-        <v>4.084957E7</v>
+        <v>4.1125247E7</v>
       </c>
       <c r="D38" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E38" t="s">
         <v>41</v>
@@ -870,67 +1047,67 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>38.0</v>
+        <v>37.0</v>
       </c>
       <c r="B39" t="n">
         <v>5.0</v>
       </c>
       <c r="C39" t="n">
-        <v>4.0849572E7</v>
+        <v>4.084957E7</v>
       </c>
       <c r="D39" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>39.0</v>
+        <v>38.0</v>
       </c>
       <c r="B40" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="C40" t="n">
-        <v>4.6755004E7</v>
+        <v>4.0849572E7</v>
       </c>
       <c r="D40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" t="s">
         <v>42</v>
-      </c>
-      <c r="E40" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>40.0</v>
+        <v>46.0</v>
       </c>
       <c r="B41" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="C41" t="n">
-        <v>4.0256831E7</v>
+        <v>4.0858372E7</v>
       </c>
       <c r="D41" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>41.0</v>
+        <v>39.0</v>
       </c>
       <c r="B42" t="n">
         <v>9.0</v>
       </c>
       <c r="C42" t="n">
-        <v>4.0256832E7</v>
+        <v>4.6755004E7</v>
       </c>
       <c r="D42" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E42" t="s">
         <v>45</v>
@@ -938,53 +1115,1141 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>42.0</v>
+        <v>40.0</v>
       </c>
       <c r="B43" t="n">
-        <v>12.0</v>
+        <v>9.0</v>
       </c>
       <c r="C43" t="n">
-        <v>4.2238703E7</v>
+        <v>4.0256831E7</v>
       </c>
       <c r="D43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" t="s">
         <v>46</v>
-      </c>
-      <c r="E43" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>43.0</v>
+        <v>41.0</v>
       </c>
       <c r="B44" t="n">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
       <c r="C44" t="n">
-        <v>4.1138523E7</v>
+        <v>4.0256832E7</v>
       </c>
       <c r="D44" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E44" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>44.0</v>
+        <v>42.0</v>
       </c>
       <c r="B45" t="n">
-        <v>14.0</v>
+        <v>12.0</v>
       </c>
       <c r="C45" t="n">
-        <v>2.0406315E7</v>
+        <v>4.2238703E7</v>
       </c>
       <c r="D45" t="s">
         <v>48</v>
       </c>
       <c r="E45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="B46" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>4.1138523E7</v>
+      </c>
+      <c r="D46" t="s">
         <v>50</v>
+      </c>
+      <c r="E46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="B47" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>2.0406315E7</v>
+      </c>
+      <c r="D47" t="s">
+        <v>50</v>
+      </c>
+      <c r="E47" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="B48" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>4.1167335E7</v>
+      </c>
+      <c r="D48" t="s">
+        <v>53</v>
+      </c>
+      <c r="E48" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="B49" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>4.1138175E7</v>
+      </c>
+      <c r="D49" t="s">
+        <v>53</v>
+      </c>
+      <c r="E49" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="B50" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>4.3719878E7</v>
+      </c>
+      <c r="D50" t="s">
+        <v>53</v>
+      </c>
+      <c r="E50" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="B51" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>4.0166487E7</v>
+      </c>
+      <c r="D51" t="s">
+        <v>56</v>
+      </c>
+      <c r="E51" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="B52" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1.8561902E7</v>
+      </c>
+      <c r="D52" t="s">
+        <v>56</v>
+      </c>
+      <c r="E52" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="B53" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>2.0195132E7</v>
+      </c>
+      <c r="D53" t="s">
+        <v>56</v>
+      </c>
+      <c r="E53" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="B54" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1.8184563E7</v>
+      </c>
+      <c r="D54" t="s">
+        <v>56</v>
+      </c>
+      <c r="E54" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="B55" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>5.1577787E7</v>
+      </c>
+      <c r="D55" t="s">
+        <v>56</v>
+      </c>
+      <c r="E55" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="B56" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>4.2224143E7</v>
+      </c>
+      <c r="D56" t="s">
+        <v>60</v>
+      </c>
+      <c r="E56" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="B57" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>4.2237306E7</v>
+      </c>
+      <c r="D57" t="s">
+        <v>60</v>
+      </c>
+      <c r="E57" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="B58" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>4.2523103E7</v>
+      </c>
+      <c r="D58" t="s">
+        <v>63</v>
+      </c>
+      <c r="E58" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="B59" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>4.2523102E7</v>
+      </c>
+      <c r="D59" t="s">
+        <v>63</v>
+      </c>
+      <c r="E59" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="B60" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>4.2507644E7</v>
+      </c>
+      <c r="D60" t="s">
+        <v>63</v>
+      </c>
+      <c r="E60" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="B61" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2.0462739E7</v>
+      </c>
+      <c r="D61" t="s">
+        <v>63</v>
+      </c>
+      <c r="E61" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="B62" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2.0396281E7</v>
+      </c>
+      <c r="D62" t="s">
+        <v>63</v>
+      </c>
+      <c r="E62" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="B63" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2.0462742E7</v>
+      </c>
+      <c r="D63" t="s">
+        <v>63</v>
+      </c>
+      <c r="E63" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="B64" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>2.0396282E7</v>
+      </c>
+      <c r="D64" t="s">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="B65" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>2.046274E7</v>
+      </c>
+      <c r="D65" t="s">
+        <v>63</v>
+      </c>
+      <c r="E65" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="B66" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>4.3723646E7</v>
+      </c>
+      <c r="D66" t="s">
+        <v>71</v>
+      </c>
+      <c r="E66" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="B67" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1.9963404E7</v>
+      </c>
+      <c r="D67" t="s">
+        <v>71</v>
+      </c>
+      <c r="E67" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="B68" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="C68" t="n">
+        <v>4.1742061E7</v>
+      </c>
+      <c r="D68" t="s">
+        <v>71</v>
+      </c>
+      <c r="E68" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="B69" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>4.0852694E7</v>
+      </c>
+      <c r="D69" t="s">
+        <v>71</v>
+      </c>
+      <c r="E69" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="B70" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1.9693974E7</v>
+      </c>
+      <c r="D70" t="s">
+        <v>71</v>
+      </c>
+      <c r="E70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="B71" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>4.0309099E7</v>
+      </c>
+      <c r="D71" t="s">
+        <v>76</v>
+      </c>
+      <c r="E71" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="B72" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>4.0309103E7</v>
+      </c>
+      <c r="D72" t="s">
+        <v>76</v>
+      </c>
+      <c r="E72" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="B73" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="C73" t="n">
+        <v>4.2511986E7</v>
+      </c>
+      <c r="D73" t="s">
+        <v>76</v>
+      </c>
+      <c r="E73" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="B74" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="C74" t="n">
+        <v>4.1307885E7</v>
+      </c>
+      <c r="D74" t="s">
+        <v>76</v>
+      </c>
+      <c r="E74" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="B75" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>4.1228191E7</v>
+      </c>
+      <c r="D75" t="s">
+        <v>76</v>
+      </c>
+      <c r="E75" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="B76" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1.9373257E7</v>
+      </c>
+      <c r="D76" t="s">
+        <v>76</v>
+      </c>
+      <c r="E76" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="B77" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1.9373258E7</v>
+      </c>
+      <c r="D77" t="s">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="B78" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>4.0422777E7</v>
+      </c>
+      <c r="D78" t="s">
+        <v>82</v>
+      </c>
+      <c r="E78" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="B79" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>4.0422779E7</v>
+      </c>
+      <c r="D79" t="s">
+        <v>82</v>
+      </c>
+      <c r="E79" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="B80" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="C80" t="n">
+        <v>4.4181018E7</v>
+      </c>
+      <c r="D80" t="s">
+        <v>85</v>
+      </c>
+      <c r="E80" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="B81" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="C81" t="n">
+        <v>4.45159E7</v>
+      </c>
+      <c r="D81" t="s">
+        <v>85</v>
+      </c>
+      <c r="E81" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="B82" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>4.4460654E7</v>
+      </c>
+      <c r="D82" t="s">
+        <v>85</v>
+      </c>
+      <c r="E82" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="B83" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>4.3964927E7</v>
+      </c>
+      <c r="D83" t="s">
+        <v>85</v>
+      </c>
+      <c r="E83" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="B84" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="C84" t="n">
+        <v>4.2403828E7</v>
+      </c>
+      <c r="D84" t="s">
+        <v>85</v>
+      </c>
+      <c r="E84" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="B85" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="C85" t="n">
+        <v>4.2150937E7</v>
+      </c>
+      <c r="D85" t="s">
+        <v>85</v>
+      </c>
+      <c r="E85" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="B86" t="n">
+        <v>125.0</v>
+      </c>
+      <c r="C86" t="n">
+        <v>4.4026432E7</v>
+      </c>
+      <c r="D86" t="s">
+        <v>92</v>
+      </c>
+      <c r="E86" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="B87" t="n">
+        <v>125.0</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1.9583898E7</v>
+      </c>
+      <c r="D87" t="s">
+        <v>92</v>
+      </c>
+      <c r="E87" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="B88" t="n">
+        <v>125.0</v>
+      </c>
+      <c r="C88" t="n">
+        <v>5.0420031E7</v>
+      </c>
+      <c r="D88" t="s">
+        <v>92</v>
+      </c>
+      <c r="E88" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="B89" t="n">
+        <v>125.0</v>
+      </c>
+      <c r="C89" t="n">
+        <v>4.885684E7</v>
+      </c>
+      <c r="D89" t="s">
+        <v>92</v>
+      </c>
+      <c r="E89" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="B90" t="n">
+        <v>125.0</v>
+      </c>
+      <c r="C90" t="n">
+        <v>4.6630885E7</v>
+      </c>
+      <c r="D90" t="s">
+        <v>92</v>
+      </c>
+      <c r="E90" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="B91" t="n">
+        <v>125.0</v>
+      </c>
+      <c r="C91" t="n">
+        <v>4.3921722E7</v>
+      </c>
+      <c r="D91" t="s">
+        <v>92</v>
+      </c>
+      <c r="E91" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="B92" t="n">
+        <v>125.0</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1.9583899E7</v>
+      </c>
+      <c r="D92" t="s">
+        <v>92</v>
+      </c>
+      <c r="E92" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="B93" t="n">
+        <v>125.0</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1.9599079E7</v>
+      </c>
+      <c r="D93" t="s">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="B94" t="n">
+        <v>125.0</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1.9599018E7</v>
+      </c>
+      <c r="D94" t="s">
+        <v>92</v>
+      </c>
+      <c r="E94" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="B95" t="n">
+        <v>125.0</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1.9318617E7</v>
+      </c>
+      <c r="D95" t="s">
+        <v>92</v>
+      </c>
+      <c r="E95" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="B96" t="n">
+        <v>125.0</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1.9244377E7</v>
+      </c>
+      <c r="D96" t="s">
+        <v>92</v>
+      </c>
+      <c r="E96" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="B97" t="n">
+        <v>162.0</v>
+      </c>
+      <c r="C97" t="n">
+        <v>2.0514491E7</v>
+      </c>
+      <c r="D97" t="s">
+        <v>103</v>
+      </c>
+      <c r="E97" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="B98" t="n">
+        <v>162.0</v>
+      </c>
+      <c r="C98" t="n">
+        <v>5.2318931E7</v>
+      </c>
+      <c r="D98" t="s">
+        <v>103</v>
+      </c>
+      <c r="E98" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="B99" t="n">
+        <v>162.0</v>
+      </c>
+      <c r="C99" t="n">
+        <v>5.2367121E7</v>
+      </c>
+      <c r="D99" t="s">
+        <v>103</v>
+      </c>
+      <c r="E99" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="B100" t="n">
+        <v>162.0</v>
+      </c>
+      <c r="C100" t="n">
+        <v>5.287747E7</v>
+      </c>
+      <c r="D100" t="s">
+        <v>103</v>
+      </c>
+      <c r="E100" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="B101" t="n">
+        <v>162.0</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1.1044319E7</v>
+      </c>
+      <c r="D101" t="s">
+        <v>103</v>
+      </c>
+      <c r="E101" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="B102" t="n">
+        <v>162.0</v>
+      </c>
+      <c r="C102" t="n">
+        <v>4.7223106E7</v>
+      </c>
+      <c r="D102" t="s">
+        <v>103</v>
+      </c>
+      <c r="E102" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="B103" t="n">
+        <v>162.0</v>
+      </c>
+      <c r="C103" t="n">
+        <v>2.0335275E7</v>
+      </c>
+      <c r="D103" t="s">
+        <v>103</v>
+      </c>
+      <c r="E103" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="B104" t="n">
+        <v>162.0</v>
+      </c>
+      <c r="C104" t="n">
+        <v>4.0249247E7</v>
+      </c>
+      <c r="D104" t="s">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="B105" t="n">
+        <v>162.0</v>
+      </c>
+      <c r="C105" t="n">
+        <v>4.0100061E7</v>
+      </c>
+      <c r="D105" t="s">
+        <v>103</v>
+      </c>
+      <c r="E105" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="B106" t="n">
+        <v>3410.0</v>
+      </c>
+      <c r="C106" t="n">
+        <v>4.0578601E7</v>
+      </c>
+      <c r="D106" t="s">
+        <v>107</v>
+      </c>
+      <c r="E106" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="B107" t="n">
+        <v>3410.0</v>
+      </c>
+      <c r="C107" t="n">
+        <v>4.0578602E7</v>
+      </c>
+      <c r="D107" t="s">
+        <v>107</v>
+      </c>
+      <c r="E107" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>107.0</v>
+      </c>
+      <c r="B108" t="n">
+        <v>3410.0</v>
+      </c>
+      <c r="C108" t="n">
+        <v>4.1136494E7</v>
+      </c>
+      <c r="D108" t="s">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="B109" t="n">
+        <v>3410.0</v>
+      </c>
+      <c r="C109" t="n">
+        <v>4.1136496E7</v>
+      </c>
+      <c r="D109" t="s">
+        <v>107</v>
+      </c>
+      <c r="E109" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/company_translation.xlsx
+++ b/company_translation.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
   <si>
     <t>RAP - Translation ID</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>ANYANG BRANCH, BANK OF CHINA LIMITED</t>
+  </si>
+  <si>
+    <t>BEIJING SINODATA TECHNOLOGY CO., LTD.</t>
   </si>
   <si>
     <t>BANK OF CHINA TIANJIN BRANCH</t>
@@ -433,7 +436,7 @@
         <v>2.0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.885684E7</v>
+        <v>4.1370098E7</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -450,7 +453,7 @@
         <v>2.0</v>
       </c>
       <c r="C18" t="n">
-        <v>4.6630885E7</v>
+        <v>4.885684E7</v>
       </c>
       <c r="D18" t="s">
         <v>17</v>
@@ -467,7 +470,7 @@
         <v>2.0</v>
       </c>
       <c r="C19" t="n">
-        <v>4.3921722E7</v>
+        <v>4.6630885E7</v>
       </c>
       <c r="D19" t="s">
         <v>17</v>
@@ -484,7 +487,7 @@
         <v>2.0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.9583899E7</v>
+        <v>4.3921722E7</v>
       </c>
       <c r="D20" t="s">
         <v>17</v>
@@ -501,7 +504,7 @@
         <v>2.0</v>
       </c>
       <c r="C21" t="n">
-        <v>1.9599079E7</v>
+        <v>1.9583899E7</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
@@ -518,7 +521,7 @@
         <v>2.0</v>
       </c>
       <c r="C22" t="n">
-        <v>1.9599018E7</v>
+        <v>1.9599079E7</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
@@ -535,7 +538,7 @@
         <v>2.0</v>
       </c>
       <c r="C23" t="n">
-        <v>1.9318617E7</v>
+        <v>1.9599018E7</v>
       </c>
       <c r="D23" t="s">
         <v>17</v>
@@ -552,13 +555,30 @@
         <v>2.0</v>
       </c>
       <c r="C24" t="n">
-        <v>1.9244377E7</v>
+        <v>1.9318617E7</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
       </c>
       <c r="E24" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.9244377E7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/company_translation.xlsx
+++ b/company_translation.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="121">
   <si>
     <t>RAP - Translation ID</t>
   </si>
@@ -54,6 +54,327 @@
   </si>
   <si>
     <t>TIANJIN IAT AUTOMOBILE TECHNOLOGY CO., LTD.</t>
+  </si>
+  <si>
+    <t>IAR(CHINA) AUTOMOBILE TECHNOLOGY CO., LTD.</t>
+  </si>
+  <si>
+    <t>亚新科南岳(衡阳)铝铸件有限公司； 南岳电控(衡阳)工业技术有限公司</t>
+  </si>
+  <si>
+    <t>ASIMCO NANYUE (HENGYANG) CO., LTD.</t>
+  </si>
+  <si>
+    <t>NANYUE ELECTRIC CONTROL (HENGYANG) INDUSTRY TECHNOLOGY CO., LTD.</t>
+  </si>
+  <si>
+    <t>NANYUE ELECTRIC CONTROL (HENGYANG) INDUSTRY TECHNOLOGY CO.,LTD.</t>
+  </si>
+  <si>
+    <t>NANYUE FUEL INJECTION SYSTEM CO., LTD.</t>
+  </si>
+  <si>
+    <t>NANYUE FUEL INJECTION SYSTEMS CO., LTD.</t>
+  </si>
+  <si>
+    <t>NANYUE POWER CONTROL (HENGYANG) INDUSTRIAL TECHNOLOGY CO., LTD.</t>
+  </si>
+  <si>
+    <t>北京创新通恒科技有限公司</t>
+  </si>
+  <si>
+    <t>BEIJING CHUANGXIN TONGHENG SCIENCE &amp; TECHNOLOGY CO., LTD.</t>
+  </si>
+  <si>
+    <t>BEIJING CHUANGXIN TONGHENG SCIENCE AND TECHNOLOGYCO., LTD.</t>
+  </si>
+  <si>
+    <t>BEIJING CHUANGXINTONGHENG SCIENCE &amp; TECHNOLOGY CO., LTD.</t>
+  </si>
+  <si>
+    <t>BEIJING CHUANGXINTONGHENG SCIENCE AND TECHNOLOGY CO., LTD.</t>
+  </si>
+  <si>
+    <t>BEIJING EBRIGHT COMMUNICATION TECHNOLOGY CO., LTD.</t>
+  </si>
+  <si>
+    <t>BEIJING EBRIGHT TECHNOLOGY DEVELOPMENT CO., LTD.</t>
+  </si>
+  <si>
+    <t>BEIJING EVERBRIGHT COMMUNICATION TECHNOLOGIES CO., LTD.</t>
+  </si>
+  <si>
+    <t>BEIJING EVERBRIGHT INNOVATION TECHNOLOGIES CO., LTD.</t>
+  </si>
+  <si>
+    <t>BEIJING EVERBRIGHT INNOVATION TECHNOLOGY CO., LTD.</t>
+  </si>
+  <si>
+    <t>BEIJING EVERBRIGHT TECHNOLOGIES CO., LTD.</t>
+  </si>
+  <si>
+    <t>BEIJING EVERBRIGHT TECHNOLOGIES DEVELOPMENT CO., LTD.</t>
+  </si>
+  <si>
+    <t>BEIJING HENGTONG CHUANGXIN WOOD PLASTIC TECHNOLOGY DEVELOPMENT CO., LTD.</t>
+  </si>
+  <si>
+    <t>BEIJING HENGTONG CREATIVE WOOD PLASTIC DEVELOPMENT CO., LTD.</t>
+  </si>
+  <si>
+    <t>BEIJING HENGTONG INNOVATION LUXWOOD TECHNOLOGY CO.,LTD.</t>
+  </si>
+  <si>
+    <t>常州苏晶电子材料</t>
+  </si>
+  <si>
+    <t>CHANGZHOU SUJING ELECTRIC MATERIALS CO., LTD.</t>
+  </si>
+  <si>
+    <t>CHANGZHOU SUJING ELECTRONIC MATERIALS CO., LTD.</t>
+  </si>
+  <si>
+    <t>银江股份有限公司</t>
+  </si>
+  <si>
+    <t>ENJOYOR CO., LTD.</t>
+  </si>
+  <si>
+    <t>HANGZHOU YINJIANG WISDOM MEDICAL GROUP CO., LTD.</t>
+  </si>
+  <si>
+    <t>协鑫集成科技股份有限公司；上海超日太阳能科技股份；上海超日（洛阳）太阳能</t>
+  </si>
+  <si>
+    <t>SHANGHAI CHAORI (LUOYANG) SOLAR ENERGY CO., LTD.</t>
+  </si>
+  <si>
+    <t>SHANGHAI CHAORI (LUOYANG) SOLAR ENERGY CO.,LTD.</t>
+  </si>
+  <si>
+    <t>SHANGHAI CHAORI (LUOYANG) SOLAR ENERGY SCIENCE &amp; TECHNOLOGY CO., LTD.</t>
+  </si>
+  <si>
+    <t>SHANGHAI CHAORI (SHENYANG) SOLAR ENERGY CO., LTD.</t>
+  </si>
+  <si>
+    <t>SHANGHAI CHAORI SOLAR ENERGY CO., LTD.</t>
+  </si>
+  <si>
+    <t>SHANGHAI CHAORI SOLAR ENERGY ENGINEERING CO.,LTD.</t>
+  </si>
+  <si>
+    <t>SHANGHAI CHAORI SOLAR ENERGY SCIENCE &amp; TECHNOLOGYCO., LTD.</t>
+  </si>
+  <si>
+    <t>SHANGHAI CHAORI SOLAR ENERGY SCIENCE &amp; TECHNOLOGYCO.,LTD.</t>
+  </si>
+  <si>
+    <t>SHANGHAI CHAORI SOLAR ENERGY SCIENCE AND TECHNOLOGY CO., LTD.</t>
+  </si>
+  <si>
+    <t>SHANGHAI CHAORI SOLAR ENGINEERING CO., LTD.</t>
+  </si>
+  <si>
+    <t>JIANGSU SUNEAST NEW ENERGY TECHNOLOGY CO., LTD.</t>
+  </si>
+  <si>
+    <t>GCL SYSTEM INTEGRATION TECHNOLOGY CO., LTD.</t>
+  </si>
+  <si>
+    <t>JIANGSU DONGSHENG PHOTOVOLTAIC TECHNOLOGY CO., LTD.</t>
+  </si>
+  <si>
+    <t>SHANGHAI WEIXUE SOLAR ENERGY SCIENCE &amp; TECHNOLOGYCO., LTD.</t>
+  </si>
+  <si>
+    <t>广州白云电器设备</t>
+  </si>
+  <si>
+    <t>BAIYUAN APPLIANCES &amp; APPTS. CO LTD, GUANGZHOU</t>
+  </si>
+  <si>
+    <t>BAIYUN ELECTRIC APPLIANCE AND EQUIPMENT CO., LTD., GUANGZHOU</t>
+  </si>
+  <si>
+    <t>BAIYUN ELECTRIC APPLIANCE CO., LTD., GUANGZHOU</t>
+  </si>
+  <si>
+    <t>BAIYUN ELECTRIC APPLIANCE EQUIPMENT CO., LTD., GUANGZHOU</t>
+  </si>
+  <si>
+    <t>BAIYUN ELECTRICAL APPLIANCES CO., LTD., GUANGZHOU CITY</t>
+  </si>
+  <si>
+    <t>GUANGZHOU BAIYUN ELECTRIC EQUIPMENT CO., LTD.</t>
+  </si>
+  <si>
+    <t>GUANGZHOU BAIYUN ELECTRICAL APPLIANCE CO. LTD.</t>
+  </si>
+  <si>
+    <t>GUANGZHOU BAIYUN ELECTRICAL EQUIPMENT CO., LTD.</t>
+  </si>
+  <si>
+    <t>GUANGZHOU DONGZHI BAIYUN ELECTRICAL EQUIPMENT CO. LTD.</t>
+  </si>
+  <si>
+    <t>GUANGZHOU TOSHIBA BAIYUN ELECTRIC DEVICE EQUIPMENT CO., LTD.</t>
+  </si>
+  <si>
+    <t>GUANGZHOU TOSHIBA BAIYUN ELECTRICAL EQIUPMENT CO., LTD.</t>
+  </si>
+  <si>
+    <t>GUANGZHOU TOSHIBA BAIYUN ELECTRICAL EQUIPMENT CO., LTD.</t>
+  </si>
+  <si>
+    <t>BAIYUN ELECTRICAL APPLIANCES CO., LTD., GUANGZHOU</t>
+  </si>
+  <si>
+    <t>杭州安恒信息技术有限公司</t>
+  </si>
+  <si>
+    <t>DBAPPSECURITY CO., LTD.</t>
+  </si>
+  <si>
+    <t>DBAPPSECURITY CO.,LTD.</t>
+  </si>
+  <si>
+    <t>DBAPPSECURITY TECHNOLOGY CO., LTD.</t>
+  </si>
+  <si>
+    <t>HANGZHOU DBAPPSECURITY CO., LTD.</t>
+  </si>
+  <si>
+    <t>湖南恒缘新材科技股份有限公司</t>
+  </si>
+  <si>
+    <t>GEO-ELECTRICAL MATERIALS HENGYANG HENG CO., LTD.</t>
+  </si>
+  <si>
+    <t>澜起科技(上海)有限公司</t>
+  </si>
+  <si>
+    <t>MONTAGE TECHNOLOGY</t>
+  </si>
+  <si>
+    <t>MONTAGE TECHNOLOGY GROUP</t>
+  </si>
+  <si>
+    <t>MONTAGE TECHNOLOGY LTD.</t>
+  </si>
+  <si>
+    <t>LANQI SEMICONDUCTOR SHANGHAI CO.,LTD.</t>
+  </si>
+  <si>
+    <t>MONTAGE TECHNOLOGY (SHANGHAI) CO., LTD</t>
+  </si>
+  <si>
+    <t>Montage Technology (Shanghai) Co., Ltd.</t>
+  </si>
+  <si>
+    <t>MONTAGE TECHNOLOGY (SHANGHAI) CO., LTD.</t>
+  </si>
+  <si>
+    <t>Montage Technology Group Ltd.</t>
+  </si>
+  <si>
+    <t>MONTAGE TECHNOLOGY GROUP LTD.</t>
+  </si>
+  <si>
+    <t>MONTAGE TECHNOLOGY SHANGHAI CO., LTD.</t>
+  </si>
+  <si>
+    <t>SUZHOU MONTAGE MICROELECTRONIC TECHNOLOGY CO., LTD.</t>
+  </si>
+  <si>
+    <t>ACROSPEED, INC.</t>
+  </si>
+  <si>
+    <t>东方日升新能源股份有限公司</t>
+  </si>
+  <si>
+    <t>RISEN ELECTRIC CO., LTD.</t>
+  </si>
+  <si>
+    <t>RISEN ENERGY CO., LTD.</t>
+  </si>
+  <si>
+    <t>NINGHAI RISEN ELECTRIC CO., LTD.</t>
+  </si>
+  <si>
+    <t>上海巴贝拉意舟餐饮管理有限公司</t>
+  </si>
+  <si>
+    <t>SHANGHAI BALELA'S KITCHEN MANAGEMENT CO., LTD.</t>
+  </si>
+  <si>
+    <t>SHANGHAI BARBELLA YIZHOU CATERING MANAGEMENT CO.,LTD.</t>
+  </si>
+  <si>
+    <t>格林美股份有限公司；深圳市格林美高新技术；荆门市格林美新材料；江西格林美资源循环有限公司；深圳市格林美环境材料有限公司</t>
+  </si>
+  <si>
+    <t>JIANGXI GREEN ECO-MANUFACTURE RESOURCE CYCLE CO.,LTD.</t>
+  </si>
+  <si>
+    <t>JINGMEN GREEN ECO-MANUFACTURE NEW MATERIAL CO., LTD.</t>
+  </si>
+  <si>
+    <t>WUHAN GEM URBAN MINING EQUIPMENT CO., LTD.</t>
+  </si>
+  <si>
+    <t>GEM (WUHAN) URBAN MINING RESOURCES INDUSTRIAL PARK DEVELOPMENT CO., LTD.</t>
+  </si>
+  <si>
+    <t>GEM (WUHAN) URBAN MINERAL CIRCULATION INDUSTRIAL PARK DEVELOPMENT CO., LTD.</t>
+  </si>
+  <si>
+    <t>GEM (WUHAN) URBAN MINING RECYCLING INDUSTRIAL PARK DEVELOPMENT CO., LTD.</t>
+  </si>
+  <si>
+    <t>GEM CO., LTD.</t>
+  </si>
+  <si>
+    <t>中矿资源勘探股份有限公司</t>
+  </si>
+  <si>
+    <t>SINOMINE RESOURCE EXPLORATION CO., LTD.</t>
+  </si>
+  <si>
+    <t>SINOMINE RESOURCE EXPLORATION CO.,LTD.</t>
+  </si>
+  <si>
+    <t>新疆中泰化学股份有限公司 (SZ.002092) </t>
+  </si>
+  <si>
+    <t>XIN JIANG ZHONG TAI CHEMICAL CO., LTD.</t>
+  </si>
+  <si>
+    <t>XINJIANG ZHONGTAI CHEMICAL (GROUP) CO., LTD.</t>
+  </si>
+  <si>
+    <t>XINJIANG ZHONGTAI CHEMICAL CO., LTD.</t>
+  </si>
+  <si>
+    <t>HANGZHOU HUANA CHEMICAL CO., LTD.</t>
+  </si>
+  <si>
+    <t>SHANDONG XINLONG TECHNOLOGY CO., LTD.</t>
+  </si>
+  <si>
+    <t>东蓝数码股份</t>
+  </si>
+  <si>
+    <t>EASTLAND DIGITAL CORPORATION</t>
+  </si>
+  <si>
+    <t>EASTLAND DIGITAL LIMITED</t>
+  </si>
+  <si>
+    <t>SINOBPO DIGITAL CO., LTD.</t>
+  </si>
+  <si>
+    <t>SINOBPO DIGITAL CO.,LTD.</t>
   </si>
 </sst>
 </file>
@@ -107,8 +428,8 @@
     <col min="1" max="1" width="18.73828125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="15.99609375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="16.05859375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="61.76953125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="46.60546875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="130.8359375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="82.51953125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -281,6 +602,1791 @@
         <v>13</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4.2466789E7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B12" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4.2150937E7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B13" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4.4181018E7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B14" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>4.3964927E7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B15" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4.2403828E7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B16" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4.45159E7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B17" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>4.4460654E7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B18" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4.1948613E7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B19" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4.1348358E7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B20" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4.1380487E7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B21" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>4.234825E7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B22" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>4.642964E7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B23" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>4.6429641E7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B24" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>4.109792E7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="B25" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>4.1097919E7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B26" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>4.1847399E7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="B27" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>4.063682E7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B28" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>4.1097922E7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B29" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>4.1097921E7</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="B30" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>4.0149897E7</v>
+      </c>
+      <c r="D30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="B31" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>4.1363596E7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="B32" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>4.3062134E7</v>
+      </c>
+      <c r="D32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="B33" t="n">
+        <v>601.0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>4.2034281E7</v>
+      </c>
+      <c r="D33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="B34" t="n">
+        <v>601.0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>4.2106794E7</v>
+      </c>
+      <c r="D34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="B35" t="n">
+        <v>901.0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>4.3839935E7</v>
+      </c>
+      <c r="D35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="B36" t="n">
+        <v>901.0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>4.6644913E7</v>
+      </c>
+      <c r="D36" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1001.0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>4.2241086E7</v>
+      </c>
+      <c r="D37" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1001.0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>4.2525337E7</v>
+      </c>
+      <c r="D38" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1001.0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>4.3909793E7</v>
+      </c>
+      <c r="D39" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1001.0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>4.4401872E7</v>
+      </c>
+      <c r="D40" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1001.0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>4.2834331E7</v>
+      </c>
+      <c r="D41" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1001.0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>4.305562E7</v>
+      </c>
+      <c r="D42" t="s">
+        <v>43</v>
+      </c>
+      <c r="E42" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1001.0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>4.0173289E7</v>
+      </c>
+      <c r="D43" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1001.0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>4.218694E7</v>
+      </c>
+      <c r="D44" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1001.0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>4.3055619E7</v>
+      </c>
+      <c r="D45" t="s">
+        <v>43</v>
+      </c>
+      <c r="E45" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1001.0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>4.1918667E7</v>
+      </c>
+      <c r="D46" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1001.0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>4.1918666E7</v>
+      </c>
+      <c r="D47" t="s">
+        <v>43</v>
+      </c>
+      <c r="E47" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1001.0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>5.1659432E7</v>
+      </c>
+      <c r="D48" t="s">
+        <v>43</v>
+      </c>
+      <c r="E48" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1001.0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>5.1617991E7</v>
+      </c>
+      <c r="D49" t="s">
+        <v>43</v>
+      </c>
+      <c r="E49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1001.0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>5.1658885E7</v>
+      </c>
+      <c r="D50" t="s">
+        <v>43</v>
+      </c>
+      <c r="E50" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1001.0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>4.6625041E7</v>
+      </c>
+      <c r="D51" t="s">
+        <v>43</v>
+      </c>
+      <c r="E51" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1101.0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1.9502417E7</v>
+      </c>
+      <c r="D52" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1101.0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1.9501791E7</v>
+      </c>
+      <c r="D53" t="s">
+        <v>58</v>
+      </c>
+      <c r="E53" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1101.0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1.9502378E7</v>
+      </c>
+      <c r="D54" t="s">
+        <v>58</v>
+      </c>
+      <c r="E54" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1101.0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1.8642801E7</v>
+      </c>
+      <c r="D55" t="s">
+        <v>58</v>
+      </c>
+      <c r="E55" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1101.0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1.8642827E7</v>
+      </c>
+      <c r="D56" t="s">
+        <v>58</v>
+      </c>
+      <c r="E56" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1101.0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1.9477995E7</v>
+      </c>
+      <c r="D57" t="s">
+        <v>58</v>
+      </c>
+      <c r="E57" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1101.0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>4.1736636E7</v>
+      </c>
+      <c r="D58" t="s">
+        <v>58</v>
+      </c>
+      <c r="E58" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1101.0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1.9505138E7</v>
+      </c>
+      <c r="D59" t="s">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1101.0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1.9985189E7</v>
+      </c>
+      <c r="D60" t="s">
+        <v>58</v>
+      </c>
+      <c r="E60" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1101.0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1.9506398E7</v>
+      </c>
+      <c r="D61" t="s">
+        <v>58</v>
+      </c>
+      <c r="E61" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1101.0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1.9666246E7</v>
+      </c>
+      <c r="D62" t="s">
+        <v>58</v>
+      </c>
+      <c r="E62" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1101.0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>4.1355149E7</v>
+      </c>
+      <c r="D63" t="s">
+        <v>58</v>
+      </c>
+      <c r="E63" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1101.0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>4.1590473E7</v>
+      </c>
+      <c r="D64" t="s">
+        <v>58</v>
+      </c>
+      <c r="E64" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1101.0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1.9985188E7</v>
+      </c>
+      <c r="D65" t="s">
+        <v>58</v>
+      </c>
+      <c r="E65" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1201.0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>4.2802771E7</v>
+      </c>
+      <c r="D66" t="s">
+        <v>72</v>
+      </c>
+      <c r="E66" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1201.0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>4.0498654E7</v>
+      </c>
+      <c r="D67" t="s">
+        <v>72</v>
+      </c>
+      <c r="E67" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1201.0</v>
+      </c>
+      <c r="C68" t="n">
+        <v>4.0498656E7</v>
+      </c>
+      <c r="D68" t="s">
+        <v>72</v>
+      </c>
+      <c r="E68" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1201.0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>4.2802772E7</v>
+      </c>
+      <c r="D69" t="s">
+        <v>72</v>
+      </c>
+      <c r="E69" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1201.0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>4.1340208E7</v>
+      </c>
+      <c r="D70" t="s">
+        <v>72</v>
+      </c>
+      <c r="E70" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1301.0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>4.3390888E7</v>
+      </c>
+      <c r="D71" t="s">
+        <v>77</v>
+      </c>
+      <c r="E71" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1801.0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>4.142552E7</v>
+      </c>
+      <c r="D72" t="s">
+        <v>79</v>
+      </c>
+      <c r="E72" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1801.0</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1.2624588E7</v>
+      </c>
+      <c r="D73" t="s">
+        <v>79</v>
+      </c>
+      <c r="E73" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1801.0</v>
+      </c>
+      <c r="C74" t="n">
+        <v>2.0438067E7</v>
+      </c>
+      <c r="D74" t="s">
+        <v>79</v>
+      </c>
+      <c r="E74" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1801.0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>2.018084E7</v>
+      </c>
+      <c r="D75" t="s">
+        <v>79</v>
+      </c>
+      <c r="E75" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1801.0</v>
+      </c>
+      <c r="C76" t="n">
+        <v>4.2604187E7</v>
+      </c>
+      <c r="D76" t="s">
+        <v>79</v>
+      </c>
+      <c r="E76" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1801.0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>4.3137082E7</v>
+      </c>
+      <c r="D77" t="s">
+        <v>79</v>
+      </c>
+      <c r="E77" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1801.0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>4.5215447E7</v>
+      </c>
+      <c r="D78" t="s">
+        <v>79</v>
+      </c>
+      <c r="E78" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1801.0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>5.1738557E7</v>
+      </c>
+      <c r="D79" t="s">
+        <v>79</v>
+      </c>
+      <c r="E79" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1801.0</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1.1633589E7</v>
+      </c>
+      <c r="D80" t="s">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="B81" t="n">
+        <v>1801.0</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1.1697702E7</v>
+      </c>
+      <c r="D81" t="s">
+        <v>79</v>
+      </c>
+      <c r="E81" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1801.0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>2.0157344E7</v>
+      </c>
+      <c r="D82" t="s">
+        <v>79</v>
+      </c>
+      <c r="E82" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1801.0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>5.2520165E7</v>
+      </c>
+      <c r="D83" t="s">
+        <v>79</v>
+      </c>
+      <c r="E83" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1801.0</v>
+      </c>
+      <c r="C84" t="n">
+        <v>7655641.0</v>
+      </c>
+      <c r="D84" t="s">
+        <v>79</v>
+      </c>
+      <c r="E84" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="B85" t="n">
+        <v>1801.0</v>
+      </c>
+      <c r="C85" t="n">
+        <v>2.0158016E7</v>
+      </c>
+      <c r="D85" t="s">
+        <v>79</v>
+      </c>
+      <c r="E85" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1801.0</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2.015802E7</v>
+      </c>
+      <c r="D86" t="s">
+        <v>79</v>
+      </c>
+      <c r="E86" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1801.0</v>
+      </c>
+      <c r="C87" t="n">
+        <v>4.1044705E7</v>
+      </c>
+      <c r="D87" t="s">
+        <v>79</v>
+      </c>
+      <c r="E87" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1801.0</v>
+      </c>
+      <c r="C88" t="n">
+        <v>4.6657384E7</v>
+      </c>
+      <c r="D88" t="s">
+        <v>79</v>
+      </c>
+      <c r="E88" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1801.0</v>
+      </c>
+      <c r="C89" t="n">
+        <v>4.9875853E7</v>
+      </c>
+      <c r="D89" t="s">
+        <v>79</v>
+      </c>
+      <c r="E89" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1801.0</v>
+      </c>
+      <c r="C90" t="n">
+        <v>4.9880752E7</v>
+      </c>
+      <c r="D90" t="s">
+        <v>79</v>
+      </c>
+      <c r="E90" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>107.0</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1801.0</v>
+      </c>
+      <c r="C91" t="n">
+        <v>4.6669956E7</v>
+      </c>
+      <c r="D91" t="s">
+        <v>79</v>
+      </c>
+      <c r="E91" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="B92" t="n">
+        <v>2001.0</v>
+      </c>
+      <c r="C92" t="n">
+        <v>4.063645E7</v>
+      </c>
+      <c r="D92" t="s">
+        <v>92</v>
+      </c>
+      <c r="E92" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="B93" t="n">
+        <v>2001.0</v>
+      </c>
+      <c r="C93" t="n">
+        <v>4.1759051E7</v>
+      </c>
+      <c r="D93" t="s">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="B94" t="n">
+        <v>2001.0</v>
+      </c>
+      <c r="C94" t="n">
+        <v>4.0636451E7</v>
+      </c>
+      <c r="D94" t="s">
+        <v>92</v>
+      </c>
+      <c r="E94" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="B95" t="n">
+        <v>2301.0</v>
+      </c>
+      <c r="C95" t="n">
+        <v>4.4474989E7</v>
+      </c>
+      <c r="D95" t="s">
+        <v>96</v>
+      </c>
+      <c r="E95" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="B96" t="n">
+        <v>2301.0</v>
+      </c>
+      <c r="C96" t="n">
+        <v>4.4007802E7</v>
+      </c>
+      <c r="D96" t="s">
+        <v>96</v>
+      </c>
+      <c r="E96" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="B97" t="n">
+        <v>2401.0</v>
+      </c>
+      <c r="C97" t="n">
+        <v>4.2760659E7</v>
+      </c>
+      <c r="D97" t="s">
+        <v>99</v>
+      </c>
+      <c r="E97" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="B98" t="n">
+        <v>2401.0</v>
+      </c>
+      <c r="C98" t="n">
+        <v>4.2402988E7</v>
+      </c>
+      <c r="D98" t="s">
+        <v>99</v>
+      </c>
+      <c r="E98" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="B99" t="n">
+        <v>2401.0</v>
+      </c>
+      <c r="C99" t="n">
+        <v>4.8593056E7</v>
+      </c>
+      <c r="D99" t="s">
+        <v>99</v>
+      </c>
+      <c r="E99" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>109.0</v>
+      </c>
+      <c r="B100" t="n">
+        <v>2401.0</v>
+      </c>
+      <c r="C100" t="n">
+        <v>5.1982654E7</v>
+      </c>
+      <c r="D100" t="s">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="B101" t="n">
+        <v>2401.0</v>
+      </c>
+      <c r="C101" t="n">
+        <v>4.8569791E7</v>
+      </c>
+      <c r="D101" t="s">
+        <v>99</v>
+      </c>
+      <c r="E101" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>111.0</v>
+      </c>
+      <c r="B102" t="n">
+        <v>2401.0</v>
+      </c>
+      <c r="C102" t="n">
+        <v>4.8574511E7</v>
+      </c>
+      <c r="D102" t="s">
+        <v>99</v>
+      </c>
+      <c r="E102" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>112.0</v>
+      </c>
+      <c r="B103" t="n">
+        <v>2401.0</v>
+      </c>
+      <c r="C103" t="n">
+        <v>5.177709E7</v>
+      </c>
+      <c r="D103" t="s">
+        <v>99</v>
+      </c>
+      <c r="E103" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="B104" t="n">
+        <v>2601.0</v>
+      </c>
+      <c r="C104" t="n">
+        <v>4.3514279E7</v>
+      </c>
+      <c r="D104" t="s">
+        <v>107</v>
+      </c>
+      <c r="E104" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="B105" t="n">
+        <v>2601.0</v>
+      </c>
+      <c r="C105" t="n">
+        <v>4.3482859E7</v>
+      </c>
+      <c r="D105" t="s">
+        <v>107</v>
+      </c>
+      <c r="E105" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="B106" t="n">
+        <v>3001.0</v>
+      </c>
+      <c r="C106" t="n">
+        <v>4.8765893E7</v>
+      </c>
+      <c r="D106" t="s">
+        <v>110</v>
+      </c>
+      <c r="E106" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="B107" t="n">
+        <v>3001.0</v>
+      </c>
+      <c r="C107" t="n">
+        <v>4.2772303E7</v>
+      </c>
+      <c r="D107" t="s">
+        <v>110</v>
+      </c>
+      <c r="E107" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="B108" t="n">
+        <v>3001.0</v>
+      </c>
+      <c r="C108" t="n">
+        <v>4.4421909E7</v>
+      </c>
+      <c r="D108" t="s">
+        <v>110</v>
+      </c>
+      <c r="E108" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>113.0</v>
+      </c>
+      <c r="B109" t="n">
+        <v>3001.0</v>
+      </c>
+      <c r="C109" t="n">
+        <v>4.1708101E7</v>
+      </c>
+      <c r="D109" t="s">
+        <v>110</v>
+      </c>
+      <c r="E109" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="B110" t="n">
+        <v>3001.0</v>
+      </c>
+      <c r="C110" t="n">
+        <v>4.76963E7</v>
+      </c>
+      <c r="D110" t="s">
+        <v>110</v>
+      </c>
+      <c r="E110" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="B111" t="n">
+        <v>3301.0</v>
+      </c>
+      <c r="C111" t="n">
+        <v>4.4680312E7</v>
+      </c>
+      <c r="D111" t="s">
+        <v>116</v>
+      </c>
+      <c r="E111" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="B112" t="n">
+        <v>3301.0</v>
+      </c>
+      <c r="C112" t="n">
+        <v>5.0360411E7</v>
+      </c>
+      <c r="D112" t="s">
+        <v>116</v>
+      </c>
+      <c r="E112" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="B113" t="n">
+        <v>3301.0</v>
+      </c>
+      <c r="C113" t="n">
+        <v>4.4281458E7</v>
+      </c>
+      <c r="D113" t="s">
+        <v>116</v>
+      </c>
+      <c r="E113" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="B114" t="n">
+        <v>3301.0</v>
+      </c>
+      <c r="C114" t="n">
+        <v>4.3740356E7</v>
+      </c>
+      <c r="D114" t="s">
+        <v>116</v>
+      </c>
+      <c r="E114" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="B115" t="n">
+        <v>3301.0</v>
+      </c>
+      <c r="C115" t="n">
+        <v>4.4230917E7</v>
+      </c>
+      <c r="D115" t="s">
+        <v>116</v>
+      </c>
+      <c r="E115" t="s">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
